--- a/Work/Modern Ways/Open Subtitles/Lesson Deployment/Product/Lesson_Result_28_Words.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Lesson Deployment/Product/Lesson_Result_28_Words.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,385 +436,655 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>twogram</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>twogram_other</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>threegram</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fourgram</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>fivegram</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>bir</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>ama var</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>yok kadar</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ne var mı</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>ne kadar daha var</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>daha iyi çok daha iyi</t>
         </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>hayır</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>bu</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>hayır şey</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>bir kadar</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>yok yok hayır</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>ben mi sen mi</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>bu bir şey değil mi</t>
         </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>şey</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>ne</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>ne değil</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>şey da</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>hayır iyi değil</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>bu iyi bu iyi</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>bu iyi değil değil mi</t>
         </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>bir</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>ve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>hayır evet</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>gibi kadar</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>ne ben mi</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>hayır bu iyi değil</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>evet bir şey daha var</t>
         </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ne</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>için</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>ama şey</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>evet kadar</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>ne için mi</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>evet bir şey yok</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>bu evet mi hayır mı</t>
         </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>mi</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>ve şey</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>ama mı</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>bu şey mi</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>bu bir hayır mı</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sen sen sen ve sen</t>
+          <t>hayır hayır yok</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>sen</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8</v>
+          <t>sen de ne var</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>bu çok iyi bir şey</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>ben</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>evet yok</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>da kadar</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>ama ben değil</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>sen de ne var</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ne sen ne de ben</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>evet</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>8</v>
+          <t>daha çok daha çok</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sen sen sen ve sen</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ben hayır</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+          <t>de</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>onu değil</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ama de</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>evet beni de</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>daha çok daha çok</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>sen de var mı</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>da da da da da</t>
         </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>değil</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>onu değil</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>kadar de</t>
-        </is>
+          <t>çok</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>evet seni de</t>
+          <t>ve evet</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>sen de var mı</t>
+          <t>ne ama</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>bir daha mı</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ben ben ben ben</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>hayır hayır hayır hayır hayır</t>
         </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>bu</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>ama</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>bir şey</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>bir şey</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>bir şey yok</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>bir şey var mı</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>de</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>evet</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mı</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>7</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>değil</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>şey</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hayır</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>daha</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sen</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kadar</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>bana</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>yok</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>onu</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>seni</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>beni</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>bunu</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>gibi</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>iyi</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
